--- a/MT/wwwroot/Uploads/Test.xlsx
+++ b/MT/wwwroot/Uploads/Test.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frick\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37501065-DF58-4B33-84AD-053CAB6F49DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB73726-80B1-4A53-A835-13FB6194AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{98035D92-A47B-4BDC-B09A-7873D81AE595}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98035D92-A47B-4BDC-B09A-7873D81AE595}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales" sheetId="2" r:id="rId1"/>
-    <sheet name="Marketing" sheetId="4" r:id="rId2"/>
+    <sheet name="Arsenal@localhost.com" sheetId="5" r:id="rId1"/>
+    <sheet name="Trainer" sheetId="7" r:id="rId2"/>
     <sheet name="Formulas" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Edad" localSheetId="1">#REF!</definedName>
     <definedName name="Edad">#REF!</definedName>
+    <definedName name="FinDeContrato" localSheetId="1">#REF!</definedName>
     <definedName name="FinDeContrato">#REF!</definedName>
+    <definedName name="RolesCentrocampista" localSheetId="1">#REF!</definedName>
     <definedName name="RolesCentrocampista">#REF!</definedName>
     <definedName name="RolesDefensa">#REF!</definedName>
     <definedName name="RolesDelantero">#REF!</definedName>
@@ -46,80 +49,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>Pens</t>
-  </si>
-  <si>
-    <t>Booklet</t>
-  </si>
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>Amount</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+  <si>
+    <t>Spieler</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Monatsgehalt</t>
+  </si>
+  <si>
+    <t>Goalkeeper</t>
+  </si>
+  <si>
+    <t>Rob Lainton</t>
   </si>
   <si>
     <t>Formula</t>
   </si>
   <si>
-    <t>Sold Products</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Advertisment</t>
-  </si>
-  <si>
-    <t>ProductSales</t>
-  </si>
-  <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>Rolle</t>
+  </si>
+  <si>
+    <t>Jürgen Klopp</t>
+  </si>
+  <si>
+    <t>Chef-Trainer</t>
+  </si>
+  <si>
+    <t>Thomas Tuchel</t>
+  </si>
+  <si>
+    <t>Co-Trainer</t>
+  </si>
+  <si>
+    <t>Julian Nagelsmann</t>
+  </si>
+  <si>
+    <t>Jose Mourinho</t>
+  </si>
+  <si>
+    <t>Durchschnittsgehalt Spieler</t>
+  </si>
+  <si>
+    <t>Höchstes Gehalt Spieler</t>
+  </si>
+  <si>
+    <t>Gehalt Trainer Team</t>
+  </si>
+  <si>
+    <t>Gary Cahill</t>
+  </si>
+  <si>
+    <t>Centre-back</t>
+  </si>
+  <si>
+    <t>Andy Bryan</t>
+  </si>
+  <si>
+    <t>Rhys Bennett</t>
+  </si>
+  <si>
+    <t>Paul Robinson</t>
+  </si>
+  <si>
+    <t>Left-back</t>
+  </si>
+  <si>
+    <t>Gretar Steinsson</t>
+  </si>
+  <si>
+    <t>Right-back</t>
+  </si>
+  <si>
+    <t>Sam Ricketts</t>
+  </si>
+  <si>
+    <t>Matty Taylor</t>
+  </si>
+  <si>
+    <t>Joey Byram</t>
+  </si>
+  <si>
+    <t>Joe Riley</t>
+  </si>
+  <si>
+    <t>Andrew Burns</t>
+  </si>
+  <si>
+    <t>Alex McQuade</t>
+  </si>
+  <si>
+    <t>Chris Stokes</t>
+  </si>
+  <si>
+    <t>Tom Eckersley</t>
+  </si>
+  <si>
+    <t>Nathan Battersby</t>
+  </si>
+  <si>
+    <t>Lewis Proudfoot</t>
+  </si>
+  <si>
+    <t>Adam Blakeman</t>
+  </si>
+  <si>
+    <t>Sean Davies</t>
+  </si>
+  <si>
+    <t>Defensive Midfielder</t>
+  </si>
+  <si>
+    <t>Frank Lampard</t>
+  </si>
+  <si>
+    <t>Central Midfielder </t>
+  </si>
+  <si>
+    <t>Stuart McDonald</t>
+  </si>
+  <si>
+    <t>Ruben Yttergard Jenssen</t>
+  </si>
+  <si>
+    <t>Richard Davies</t>
+  </si>
+  <si>
+    <t>Hedwiges Maduro</t>
+  </si>
+  <si>
+    <t>Liam Irwin</t>
+  </si>
+  <si>
+    <t>Graeme MacGregor</t>
+  </si>
+  <si>
+    <t>Oulwasamni Odelusi</t>
+  </si>
+  <si>
+    <t>Sam Sheridam</t>
+  </si>
+  <si>
+    <t>Scott Carson</t>
+  </si>
+  <si>
+    <t>testFinal4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -130,8 +221,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,12 +244,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,41 +264,36 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -503,236 +608,478 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80900CC8-94CE-4F9E-A978-28A3E3B4D11B}">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AD3437-46CE-40C1-BF74-9FFF03DBDD5B}">
+  <dimension ref="D1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="4:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="4:6" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="4:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="4:6" s="2" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>204</v>
-      </c>
-      <c r="C4" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="D4" s="2">
-        <f>B4*C4</f>
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5:D7" si="0">B5*C5</f>
-        <v>182.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>223</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>724.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="F4" s="1">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2">
-        <v>4.25</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>97.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="D8" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I15" s="4"/>
+      <c r="F9" s="1">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="1">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="1">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="1">
+        <v>425</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3EBE80-1CC6-42F8-8C43-8BC42BAB2904}">
-  <dimension ref="A3:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03CE5FE-0F0D-4E89-A2AE-76E1734431DB}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>115000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6788977-74DC-4BF4-86A2-7A20CA04730E}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>204</v>
-      </c>
-      <c r="C6" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="D6" s="2">
-        <f>B6*C6</f>
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="D7" s="2">
-        <f>B7*C7</f>
-        <v>182.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>223</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="D8" s="2">
-        <f>B8*C8</f>
-        <v>724.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.25</v>
-      </c>
-      <c r="D9" s="2">
-        <f>B9*C9</f>
-        <v>97.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1239D81B-74CF-49D6-995C-E2356E24232D}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>SUM(Sales!D4:D7)</f>
-        <v>3759.2</v>
+      <c r="A2" s="5">
+        <f>AVERAGE('Arsenal@localhost.com'!F:F)</f>
+        <v>37296.428571428572</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <f>MAX('Arsenal@localhost.com'!F:F)</f>
+        <v>160000</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>SUM(Trainer!D5:D8)</f>
+        <v>328000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>